--- a/sofaplayer/Premier_League/Nottingham Forest_stats.xlsx
+++ b/sofaplayer/Premier_League/Nottingham Forest_stats.xlsx
@@ -3539,7 +3539,7 @@
         <v>2340</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -7099,7 +7099,7 @@
         <v>2205</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
